--- a/public/static/templatefile_row.xlsx
+++ b/public/static/templatefile_row.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\GIS\irmsAll\irms-vue2\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144D2233-7DF1-4A37-82DE-C6A864D4FBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD5C99D-2185-4703-8A0B-9D81AB1A4030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
-    <t>资产统计综合表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>编号-总编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -224,6 +220,10 @@
   </si>
   <si>
     <t>是否使用CDN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息资产统计综合表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,54 +618,54 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="76.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="76.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.25" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="19.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="46" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -713,144 +713,144 @@
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/templatefile_row.xlsx
+++ b/public/static/templatefile_row.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\GIS\irmsAll\irms-vue2\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD5C99D-2185-4703-8A0B-9D81AB1A4030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737FDF4-1BBE-478A-B020-AE21394A5253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>编号-总编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t>信息资产统计综合表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络区域</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="AK13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,7 +671,7 @@
     <col min="46" max="46" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
@@ -712,8 +720,10 @@
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" s="1" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -851,11 +861,17 @@
       </c>
       <c r="AT2" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AT1"/>
+    <mergeCell ref="A1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2">
